--- a/data/talents.xlsx
+++ b/data/talents.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F33440-1349-49EC-8228-3642668C2CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90145F6C-319F-4EDD-B5B8-1AE809D1CC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="talents" sheetId="1" r:id="rId1"/>
@@ -2222,10 +2222,10 @@
   <dimension ref="A1:Q133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D129" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C135" sqref="C135"/>
+      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.44140625" defaultRowHeight="39.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2768,7 +2768,7 @@
         <v>169</v>
       </c>
       <c r="E25" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G25" s="1">
         <v>2</v>
@@ -3196,7 +3196,7 @@
         <v>217</v>
       </c>
       <c r="E50" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3527,7 +3527,7 @@
         <v>264</v>
       </c>
       <c r="E67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">

--- a/data/talents.xlsx
+++ b/data/talents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90145F6C-319F-4EDD-B5B8-1AE809D1CC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13B350D-BD4C-4E5E-9115-7212D2CD903A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2222,10 +2222,10 @@
   <dimension ref="A1:Q133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomRight" activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.44140625" defaultRowHeight="39.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2768,7 +2768,7 @@
         <v>169</v>
       </c>
       <c r="E25" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G25" s="1">
         <v>2</v>
@@ -3196,7 +3196,7 @@
         <v>217</v>
       </c>
       <c r="E50" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3527,7 +3527,7 @@
         <v>264</v>
       </c>
       <c r="E67" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
